--- a/Output/Relatorio-Erros-RU567434.xlsx
+++ b/Output/Relatorio-Erros-RU567434.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levi.sistemas\Downloads\NuCase\NubankCase_RelatorioVendas\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB00FF87-85F6-47E4-958F-7F338BB0747F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0486737A-1E66-4044-8AF9-E7B5D0A4C5AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C4D5C8E6-7321-4D75-BC43-A71EB34AAD8D}"/>
   </bookViews>

--- a/Output/Relatorio-Erros-RU567434.xlsx
+++ b/Output/Relatorio-Erros-RU567434.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levi.sistemas\Downloads\NuCase\NubankCase_RelatorioVendas\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A7D17C-DE86-455E-B028-8520FCF46107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C67E67-6C4F-4B8E-B635-3107D14DBD8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A8403849-DD0E-462D-94B4-74B4F8240D80}"/>
   </bookViews>
